--- a/publipostage/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCT02765529</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NCT02016222</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Research of Biomarkers of Air Pollutants Exposure</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AEROTOX-2</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+          <t>Tear Analysis in the Diagnosis of Primary Progressive Forms of Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>LARMES</t>
+        </is>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT02276924</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Diagnostic Relevance of Laser Confocal Microscopy During Reno-ureteroscopy in the Context of the Screening and Follow-up of Upper Urinary Tract Tumors</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>UROVISIO</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT02016222</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT02765529</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tear Analysis in the Diagnosis of Primary Progressive Forms of Multiple Sclerosis</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LARMES</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
+          <t>Research of Biomarkers of Air Pollutants Exposure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>AEROTOX-2</t>
+        </is>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT02005679</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Transposition of the Mini-Mental State in Sign Language</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>MMS-LS</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,32 +661,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT03393299</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT02043964</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Impact of the Systematic Use of the Criteria STOPP/START in Short Stay Geriatric: Study of Superiority, Randomized, Controlled, Prospective, Single Blind</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>REVOR</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+          <t>Tear Analysis by Isoelectric Focusing in Clinically Isolated Syndrome as Multiple Sclerosis Criterion Among Patients With or Without Lesions at the Magnetic Resonance Imaging (Oligoclonal Profile of Tears)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>POLAR</t>
+        </is>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -673,32 +703,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT02043964</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT02297165</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Tear Analysis by Isoelectric Focusing in Clinically Isolated Syndrome as Multiple Sclerosis Criterion Among Patients With or Without Lesions at the Magnetic Resonance Imaging (Oligoclonal Profile of Tears)</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>POLAR</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Efficacy Study of an Olfactory Stimulation Program in Relaxing Environment for the Recuperation of Autobiographical Memories in Anorexic Patients</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>OLFANOR</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -710,32 +745,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT02669160</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Tolerance of a Motorized Orthosis Reproducing Walking Movement Versus Conventional Passive Standing-up Devices in Children With Cerebral Palsy : A Non-inferiority, Randomised, Multicenter, Controlled Trial</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>EOMEC/CP</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -747,32 +787,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT02297165</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT03393299</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Efficacy Study of an Olfactory Stimulation Program in Relaxing Environment for the Recuperation of Autobiographical Memories in Anorexic Patients</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OLFANOR</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+          <t>Impact of the Systematic Use of the Criteria STOPP/START in Short Stay Geriatric: Study of Superiority, Randomized, Controlled, Prospective, Single Blind</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>REVOR</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -784,32 +829,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT03666793</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Comprehensive Management of Drug Prescriptions Throughout the Elderly Person's Hospital Care, From Hospital to Home: Impact on Readmission at 30 Days After Delivery</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>OPTISORT</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -821,32 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT02733900</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Study of Modifications of the Composition and Structure in the Aseptic Osteonecrosis of the Femoral Head and Etiopathogenic MRI Correlations</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>ONTF</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -858,32 +913,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT03976674</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT03727217</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Evaluation of a Preoperative Cognitive Behavioural Therapy (CBT) Program Based on Self-determination Theory for Bariatric Surgery Candidates : an Open-label Controlled, Randomized, Superiority Study</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ACRoBAT</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Performance of Ultrasound in the Early Diagnosis of Vocal Cords Paralysis After Thyroidectomy or Parathyroidectomy (PECV)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PECV</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -895,32 +955,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT03727217</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT04224077</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Performance of Ultrasound in the Early Diagnosis of Vocal Cords Paralysis After Thyroidectomy or Parathyroidectomy (PECV)</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PECV</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>Optimisation of Diffusion Tensor Sequences (DTI) for Study of Lumbar Roots by Magnetic Resonance Imaging (MRI) : a Feasibility Study</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>OPTI-DTI</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,32 +997,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT04224077</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT03976674</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Optimisation of Diffusion Tensor Sequences (DTI) for Study of Lumbar Roots by Magnetic Resonance Imaging (MRI) : a Feasibility Study</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>OPTI-DTI</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Evaluation of a Preoperative Cognitive Behavioural Therapy (CBT) Program Based on Self-determination Theory for Bariatric Surgery Candidates : an Open-label Controlled, Randomized, Superiority Study</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ACRoBAT</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -969,32 +1039,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NCT02862379</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Evaluation of a Personalized Rehabilitation Program for Elderly Patients That Fall : Impact on the Fear of Falling</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>CHUTE</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1006,32 +1081,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>NCT03162341</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Study of the Correlation Between UltraSonography and Dual-Energy Computed Tomography Assessment of Urate Deposit in Urate Lowering Therapy Initiators</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>GOUT</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1043,32 +1123,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT04169477</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT04699136</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Superiority, Prospective, Multicentric, Randomized, Single-blind, Cross-over Study Comparing 2 Modes of Transcutaneous Electrical Nerve Stimulation (TENS) in Chronic Neuropathic Radiculalgia</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CROSS-TENS</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Use and Validation of the 6-minute Stepper Test in in Patients With Cardiac Pathologies Needing Rehabilitation and Reeducation (CVRR)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>STEPPER</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1080,32 +1165,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT04699136</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT04169477</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Use and Validation of the 6-minute Stepper Test in in Patients With Cardiac Pathologies Needing Rehabilitation and Reeducation (CVRR)</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>STEPPER</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>Superiority, Prospective, Multicentric, Randomized, Single-blind, Cross-over Study Comparing 2 Modes of Transcutaneous Electrical Nerve Stimulation (TENS) in Chronic Neuropathic Radiculalgia</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CROSS-TENS</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1117,32 +1207,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT02819037</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT03128905</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Modification of Digestive Flora After Gastric Bypass : Pilot Study on Microbial Overgrowth Using Gas Chromatography</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SIBOB</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Colchicine or Prednisone for the Treatment of Acute Calcium Pyrophosphate Deposition (CPPD) Arthritis: Open-label, Randomized, Multicenter, Equivalence Trial of Efficacy and Safety</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>COLCHICORT</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1154,32 +1249,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT03128905</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT02819037</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Colchicine or Prednisone for the Treatment of Acute Calcium Pyrophosphate Deposition (CPPD) Arthritis: Open-label, Randomized, Multicenter, Equivalence Trial of Efficacy and Safety</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>COLCHICORT</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>Modification of Digestive Flora After Gastric Bypass : Pilot Study on Microbial Overgrowth Using Gas Chromatography</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SIBOB</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
+++ b/publipostage/03wr2ty35/liste_essais_cliniques_identifies_03wr2ty35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +766,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +813,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +860,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +907,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -904,6 +954,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -946,6 +1001,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -988,6 +1048,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1030,6 +1095,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1072,6 +1142,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1114,6 +1189,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1156,6 +1236,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1198,6 +1283,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1240,6 +1330,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1281,6 +1376,11 @@
       </c>
       <c r="J20" t="b">
         <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
   </sheetData>
